--- a/hypothesis_test.xlsx
+++ b/hypothesis_test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\DATA\Github\ttp_O31_warmups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF38595-2612-404B-8167-B8C4E7FB8B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD31DDA-F0F3-4F85-BCC6-95758E612E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFB330BD-1645-4C86-8B17-7C2C925C497B}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2+" sheetId="2" r:id="rId2"/>
+    <sheet name="Quetions" sheetId="1" r:id="rId1"/>
+    <sheet name="Answer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>-- 1) Go back to the dvdrental database, and get the average, standard deviation, and count</t>
   </si>
@@ -133,33 +133,9 @@
     <t>sample</t>
   </si>
   <si>
-    <t>x_bar</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>claim</t>
   </si>
   <si>
-    <t xml:space="preserve">What is confidence interval? </t>
-  </si>
-  <si>
-    <t>stdev.pop</t>
-  </si>
-  <si>
-    <t>lower confidence limit =</t>
-  </si>
-  <si>
-    <t>confidence level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper confidence limit = </t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
     <t>H0:</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t>mu:</t>
   </si>
   <si>
-    <t>confidence level:</t>
-  </si>
-  <si>
     <t>n:</t>
   </si>
   <si>
@@ -199,15 +172,9 @@
     <t>TESTING</t>
   </si>
   <si>
-    <t>x_bar &gt;= mu?</t>
-  </si>
-  <si>
     <t>min limit</t>
   </si>
   <si>
-    <t>x_bar&gt;limit?</t>
-  </si>
-  <si>
     <t>a (alpha):</t>
   </si>
   <si>
@@ -215,6 +182,39 @@
   </si>
   <si>
     <t>p&lt;a?</t>
+  </si>
+  <si>
+    <t>significance level (a):</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>* Do not worry about getting exact value. The goal is to prove the claim wrong. So you put what you are trying to provide as H0</t>
+  </si>
+  <si>
+    <t>x_bar &lt;= mu?</t>
+  </si>
+  <si>
+    <t>x_bar&lt;=limit?</t>
+  </si>
+  <si>
+    <t>boss is wrong</t>
+  </si>
+  <si>
+    <t>boss is correct</t>
+  </si>
+  <si>
+    <t>based on claim</t>
+  </si>
+  <si>
+    <t>Based on 99% confidence level, we cannot reject that mean is less than 100 and hence cannot support that the boss' claim that mu &gt; 100 is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on 95% confidence level, we reject that mean is less than 100. Hence, we support the alternative that mean is above 100 (as the boss claimed). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on 98% confidence level, we can reject that mean is less than 100. Hence, we support the alternative that mean is above 100 (as the boss claimed). </t>
   </si>
 </sst>
 </file>
@@ -223,11 +223,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +324,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -374,7 +383,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,11 +391,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -407,24 +412,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -450,7 +466,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447915</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>153233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -510,13 +526,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>834985</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>151041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>835345</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>151401</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -575,17 +591,17 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>441480</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -604,7 +620,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -638,25 +654,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>343380</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513995</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161104</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="45" name="Ink 44">
+            <xdr14:cNvPr id="50" name="Ink 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8E2F91-3E36-4241-AB4A-F2F6D37E6A0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD884DE-2A9E-487F-B650-2D4DD73B89EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -664,18 +680,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="3467580" y="1074420"/>
-            <a:ext cx="4094915" cy="2750820"/>
+            <a:off x="5239320" y="6240600"/>
+            <a:ext cx="3653220" cy="2698744"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="45" name="Ink 44">
+            <xdr:cNvPr id="50" name="Ink 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8E2F91-3E36-4241-AB4A-F2F6D37E6A0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD884DE-2A9E-487F-B650-2D4DD73B89EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -689,8 +705,268 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3458580" y="1065420"/>
-              <a:ext cx="4112555" cy="2768460"/>
+              <a:off x="5230680" y="6231601"/>
+              <a:ext cx="3670860" cy="2716383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA9D2B-9AE3-45F2-8C0B-1A687FB5E923}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4953000" y="10607040"/>
+            <a:ext cx="3074400" cy="2698920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA9D2B-9AE3-45F2-8C0B-1A687FB5E923}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4944360" y="10598040"/>
+              <a:ext cx="3092040" cy="2716560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65220</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653378A3-D351-4BC7-A1B9-4A9210EC4E2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8332920" y="11136240"/>
+            <a:ext cx="416880" cy="558360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653378A3-D351-4BC7-A1B9-4A9210EC4E2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8324280" y="11127600"/>
+              <a:ext cx="434520" cy="576000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>159060</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0F5576-CD10-4F88-A6B0-40A8600F6742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9036000" y="11565360"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0F5576-CD10-4F88-A6B0-40A8600F6742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9027000" y="11556360"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>194340</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530820</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65CD45B-75A2-459D-B4FB-F7EFD17B12DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9071640" y="10474200"/>
+            <a:ext cx="946080" cy="943560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Ink 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65CD45B-75A2-459D-B4FB-F7EFD17B12DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9062640" y="10465200"/>
+              <a:ext cx="963720" cy="961200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -798,7 +1074,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:04:54.576"/>
+      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:23:13.396"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -812,34 +1088,160 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 5487,'0'0,"0"0,0 0,0 0,4-1,48-3,0-2,-1-3,1-2,-2-2,46-18,-26 3,-1-4,-2-2,50-35,-3-6,-3-6,-4-4,68-73,-53 34,-6-5,72-104,-53 42,85-164,-67 72,-11-9,176-474,-179 419,117-249,-147 372,85-123,-131 243,5 3,77-88,-117 157,1 1,2 2,1 1,1 1,1 2,2 2,0 1,1 1,1 3,13-4,-18 10,1 2,1 2,0 1,0 1,0 2,0 2,1 1,-1 2,1 1,-1 1,0 3,0 1,-1 1,13 6,-3 1,1 3,-2 1,0 2,-2 2,0 2,-2 2,-1 1,-1 2,-2 2,15 17,-1 6,-2 3,-3 2,-3 1,-2 3,-3 1,-1 6,56 133,17 78,69 222,65 171,-140-399,-9-23,61 106,-111-276,4-2,4-3,20 22,13 6,95 93,-59-87,5-5,34 16,-76-58,73 52,4-7,119 59,-189-120,160 86,-166-94,90 30,-96-47,-66-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1128.001">130 5657,'0'0,"0"0,0 0,3 1,277 41,91 11,-80-28,2-13,-1-12,95-21,1401-114,-1696 129,1560-109,2 30,-1318 81,110 20,-427-14,-12-1,0 0,0-1,0 0,0 0,0 0,0-1,2-1,-5 1,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2270.578">3928 0,'0'4,"-3"59,2 1,8 51,23 130,-13-115,14 180,-8 309,-17 410,-6 349,-2-1183,6 208,46 303,-36-510,-13-187,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31307.199">3621 6731,'0'0,"0"0,0 0,0 0,0 0,2-3,59-136,7 3,6 3,10-6,-19 30,-29 47,17-21,-53 83,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,7 11,2 24,-8-30,19 86,-10-39,3-1,10 24,-22-71,-1-1,0 0,1 1,0-1,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 0,1 0,-1-1,0 1,0-1,1 1,-1-1,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,0 0,-1 0,1-1,-1 1,2-1,8-2,0-1,-1 0,0 0,1-1,-1-1,-1 0,1-1,6-5,2-2,-1-2,0 0,-2-1,13-15,5-10,17-29,-52 70,0 1,1-1,-1 0,1 0,-1 1,0-1,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 43,-40 283,22-201,11-81,-12 89,-13 36,24-150,6-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50514.032">4871 859,'-10'38,"1"0,2 0,2 0,1 6,0 156,4-66,7 294,1-285,28 139,9 71,-20 1,-12-152,-3-60,16 346,-31-191,-14 30,5-181,-5 48,7 133,13-301,1 0,1 1,1-2,1 1,2 0,9 23,25 51,-15-41,11 43,-36-97,0 0,0 0,0 1,0-1,-1 0,0 1,0 0,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51310.849">5189 6039,'0'0,"0"0,0 0,2 3,57 103,42 56,-25-45,-4 8,-53-88,-8-14,1 0,1-1,0 0,2-1,1-1,5 5,-20-25,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51674.874">5673 6059,'-10'17,"-32"46,-2-2,-49 52,-17 21,-15 47,27-38,97-142,1 0,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52195.086">5001 5617,'0'0,"0"0,0 0,0 0,0 0,0 0,2 1,26 19,1-2,0-2,2 0,-1-2,2-1,0-2,0-1,18 3,210 39,-245-49</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42664.436">3494 7197,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 7,-1 0,0 0,-1 0,0 0,0 0,0 0,-6 19,-20 118,24-115,1 0,2 1,1-1,1 1,-1-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43708.212">4134 7094,'0'0,"0"0,0 0,0 0,0 0,-9 13,5-8,-24 31,-1-1,2 1,1 2,3 0,-8 19,25-46,1 0,1 1,0 0,1-1,0 1,0 1,2-1,-1 0,1 0,1 1,1-1,-1 0,2 1,0-1,0 0,1 0,1 0,2 6,-4-13,1 0,-1 0,1-1,0 1,0-1,1 0,2 3,-5-5,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,-1-1,1 1,2-1,-1-1,1 0,-1-1,0 1,1-1,-1 0,0 0,-1 0,1 0,1-3,6-5,6-6,0 0,-2-2,0 0,0 0,-2-1,10-22,-20 36,1-1,-1 0,0 1,0-1,-1 0,0 0,0-1,-1 1,0 0,0 0,-1-4,0 6,0 0,-1-1,0 1,0 0,0 0,0 1,-1-1,0 0,0 1,0-1,0 1,-1 0,0 0,0 1,0-1,-3-2,-9-6,12 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44880.427">4682 7242,'0'0,"0"0,0 0,0 0,0 0,-2 1,-24 14,6-4,1 1,1 0,0 2,13-10,0 0,0 0,1 1,0 0,0-1,0 2,0-1,1 0,0 1,0 0,1-1,-3 7,-1 14,0 0,2 0,1 0,1 0,1 1,3 26,17-38,-15-11,1 0,1 0,-1-1,0 0,1 0,0 0,-1 0,1-1,0 0,0 0,1-1,-1 0,0 0,0 0,1-1,-1 0,0 0,1 0,-1-1,0 0,1-1,1 0,16-5,0-2,0 0,-1-2,0-1,-1 0,-1-2,0 0,0-2,14-14,-22 18,0 0,-1-1,-1-1,0 0,-1 0,0-1,-1 0,-1-1,0 0,-1 0,-1-1,-1 0,0 0,1-9,-6 23,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,-1-1,0 0,0 1,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,0 1,1-1,-3 1,-11-1,0 1,0 1,1 1,-1 0,-14 5,15-4,0 2,0 0,0 2,1-1,0 2,0 0,1 0,-8 7,-17 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57355.532">5690 7156,'1'4,"-1"0,1 0,0 1,0-1,1 0,-1 0,3 3,1 6,25 59,4-1,2-2,27 36,-60-101,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57871.744">5985 7185,'0'0,"0"0,0 0,0 3,5 21,0-1,2 0,1 0,0-1,2 0,0 0,2-1,0-1,1 0,1 0,1-1,5 3,-18-20,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,-1 1,1-1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1-1,-4-10,-4-71,2 21,-2 0,-3 0,-7-20,15 78,-7-19,7 20,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,-1 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58711.527">6303 6796,'0'0,"0"0,0 0,0 0,8-14,-3 9,-1-2,10-13,1 0,16-17,-27 33,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 1,1 0,0 0,-6 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-2 18,0-6,-5 43,-2 0,-3 0,-4 4,-57 161,71-215,-4 15,5-20,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 1,0-1,2-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,1-1,5-3,32-21,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="81623.809">10859 5207,'0'0,"0"0,0 0,0 0,0 0,-18-5,-10-3,-2-1,3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="81959.849">10735 5054,'0'0,"0"0,0 0,0 0,23-4,17-5,3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="81960.849">11374 4975,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-17-2,-9-5,-2-7,2-6,5-8,5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="81961.849">11197 4739,'0'0,"0"0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="81962.849">1164 5084,'0'0,"0"0,0 0,0 0,-1 0,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,1 0,-2 0,-4 6,-91 68,-147 124,78-38,58-54,-29 16,128-114,5-6,1 0,0 0,-1 0,0 0,0-1,0 0,0 0,0 0,-4 2,3-5,12-11,40-44,1 2,3 3,28-21,179-133,-232 186,25-21,2 3,1 2,48-22,-96 54,-4 1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,1 1,0 3,-13 7,-18 11,-108 79,105-80,-2-1,0-2,-19 7,24-16,27-8,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,5-8,35-67,4 2,3 2,3 1,36-37,-81 103,2-2,0 0,0 1,0-1,1 1,0 1,0-1,5-1,-11 6,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,1 0,-2 1,0-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,-19 60,-2 0,-11 16,-61 118,76-163,38-57,33-54,-20 28,38-43,-71 92,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1 0,1-1,-2 1,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,1 0,-2 0,1 0,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,14 38,-2 0,-2 2,-1-1,2 31,1-2,-4-21,-4-14,3-1,5 16,-22-70,-1-1,-1 2,-1-1,-9-11,-4-7,10 13,-2-2,17 28,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,5 24,6 17,-4-18,-1-1,-2 1,0 0,-1 0,-1 6,-2-27,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 0,-1 0,-11 2,0 0,1-2,-1 0,-7-1,7 1,-78-3,0-4,1-4,-53-14,146 25,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,1-1,11-3,117-39,122-60,-251 104,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-2-25,1 0,1 0,1 0,2 0,0 0,4-10,-7 37,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,4 9,3 20,2 24,-1 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="87512.932">224 4332,'0'0,"0"0,0 0,0 0,3 2,38 25,-1 2,-1 1,17 21,104 111,-214-210,22 19,-32-28,-46-57,89 90,1-2,1 0,2-1,0-1,2 0,-6-18,10 17,2-1,1 0,1 0,1 0,2-1,1 0,1 1,2-1,1 0,2-4,0 7,2 0,1 0,0 1,3 0,0 0,1 1,2 0,0 1,2 1,1 0,3-3,-10 16,0 1,1-1,1 2,0-1,0 1,10-7,-17 14,0 0,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 1,1-1,-1 0,0 1,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,2 1,2 4,-1 0,1 0,-1 0,0 1,-1 0,0 0,0 0,-1 1,0-1,0 1,-1 0,0 0,1 7,1 11,0 0,-1 0,-2 0,-1 8,-2 23,-2 1,-2-1,-3 0,-3 0,-2-1,-3 0,-2-1,-11 20,19-56,0 0,-6 7,-2 3,21-29,0 0,0-1,1 0,-1 1,0-1,0 0,0 0,1-1,-1 1,78-6,-1-3,66-17,-127 20,0 0,-1-1,0-1,0-1,-1 0,0-2,-1 0,34-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="88133.881">932 3802,'3'-22,"8"-43,-1-27,-9 73,0 0,-2 0,0-1,-1 1,-1 0,-1 1,-1-3,4 17,0-1,-1 1,0 0,1 0,-2 0,1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 1,0 0,0-1,-3 0,5 2,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-2 1,-30 25,28-23,-10 10,0 1,1 0,1 1,0 0,2 1,-1 0,2 1,1 1,0 0,1 0,-1 6,7-19,1-1,0 1,0 0,1 0,0-1,0 1,0 0,1-1,-1 1,1 0,1-1,-1 1,1-1,0 1,0-1,1 0,-1 0,1 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,1-1,-1 1,1-1,0 0,1 1,5 2,0-1,1 0,-1 0,1-1,0 0,1-1,-1-1,1 0,-1 0,1-1,-1-1,1 0,6-1,2-3,-1 0,0-1,0-1,-1 0,0-2,0 0,0-2,-1 0,10-8,-2 0,0-2,-1-1,-1-1,-1 0,14-21,15-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="88686.899">1291 2890,'49'26,"-1"2,-2 2,-1 2,-1 2,-2 2,-1 2,-2 1,6 12,-36-41,-1 0,0 0,-1 1,0 0,-1 0,4 9,-8-15,0 0,-1 1,0 0,1-1,-2 1,1 0,-1-1,0 1,0 0,0 0,-1-1,0 1,0 0,-1-1,1 1,-2 0,-15 37,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="89033.174">831 2947,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="89359.423">1464 2778,'-1'-17,"-5"-29,-9-32,10 59,0 1,-1 1,-1-1,0 1,-8-12,15 28,0 0,-1 1,1-1,0 0,0 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 1,-2 1,-1 1,-13 16,2 1,0 1,2 0,0 1,1 3,9-21,1 0,0 1,0-1,0 1,1-1,0 1,0-1,1 1,0 0,0 0,0-1,1 1,0-1,1 1,-1 0,1-1,0 0,1 1,-1-1,1 0,1 0,-1-1,2 2,-1-1,1 0,-1-1,1 0,0 1,1-2,-1 1,1-1,0 0,6 3,-8-5,-1 0,1-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,2-1,8-5,1-1,-1 0,0-1,-1-1,0 0,7-8,34-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="89694.328">1700 2080,'0'0,"0"0,0 3,-5 43,3 0,2 0,2 15,1-33,0 0,2 0,1-1,1 1,2-1,2 2,-8-19,2-1,-1 0,1 0,0-1,1 0,0 0,0 0,-4-6,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1-1,1 0,7-5,-1-1,0 0,-1-1,0 0,-1 0,1-1,-2 0,1 0,2-8,5-15,-1 0,3-19,-3 2,-2 0,2-36,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="90026.328">1674 1233,'0'0,"0"0,0 0,4 4,154 168,-60-62,8-1,-44-53,30 21,-61-54,1-1,1-2,1-1,8 2,-10-8,-9-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="90027.328">1712 1970,'0'0,"0"0,0 0,0 0,13-22,21-36,26-38,28-32,27-21,26-11,-12 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="92227.871">1971 2788,'298'375,"-265"-330,-2 2,-1 0,-3 2,-2 1,-2 1,-2 1,1 14,-1 7,-3 1,-4 1,-3 0,-3 1,-3 5,-2 28,-4-1,-6 0,-13 67,10-115,-2-1,-3-1,-3 0,-2-1,-3-1,-2-1,-10 13,20-41,-2-2,-1 0,-1-1,-18 18,26-31,0-1,-1 1,0-2,-1 0,0 0,-1-1,0-1,0 0,0-1,-4 1,13-6,-1 0,0 0,1 0,-1-1,0 0,0 0,0 0,1-1,-1 0,0 0,1 0,-1-1,1 0,-1 0,1 0,0-1,0 1,0-1,-4-3,-10-8,1-1,1 0,0-2,-3-5,13 15,-27-29,-28-39,52 61,0 0,1-1,1-1,0 1,1-1,1 0,-2-7,7 3,0 13,-4 18,-32 94,15-47,3 1,-2 17,21-74,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,1-1,6 4,1-1,-1 0,1-1,0 0,3 0,2 1,202 35,-2-1,-168-27,0 3,0 2,20 10,-28-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 4776,'0'0,"0"0,0 0,11-5,-5 2,15-10,1-1,-2-1,0-1,-1 0,1-4,87-94,-100 105,50-60,-4-2,-3-3,-3-2,-4-2,16-42,51-139,-4-26,-35 90,379-952,-185 544,-212 502,4 2,5 3,4 3,4 3,18-14,22-13,5 5,5 6,56-35,70-40,-148 115,68-32,-105 66,2 3,1 3,31-7,-49 20,1 1,0 3,1 2,-1 2,21 1,-34 4,1 2,-1 1,1 1,-1 2,0 1,5 4,-14-3,-1 1,0 1,-1 1,0 1,-1 1,0 1,-1 1,11 10,-5 0,0 2,-2 0,-1 1,-2 2,6 10,1 6,-3 1,-2 1,6 21,13 51,-5 2,15 90,22 140,60 235,-97-451,7-3,5-1,22 32,-15-53,4-2,5-3,5-3,4-4,4-3,5-3,3-4,4-4,11 2,-1-7,3-5,3-5,4-5,2-4,11-1,211 78,14-12,-210-81,1-6,2-6,1-6,1-6,25-5,-142-16,-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="999.964">1 5129,'0'0,"0"0,2-1,40-17,0 1,1 2,35-6,136-24,-207 44,740-107,5 32,-576 59,1249-92,-997 80,-42 1,230-15,1 20,371 48,-624 5,252 57,-586-81,18 6,-29-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3095.957">3261 258,'4'16,"15"87,-4 1,-3 13,5 214,-11-177,116 1281,-74-863,-31 2,-10-291,-1-102,9 0,13 36,-25-171,-3-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52066.495">6626 4278,'0'0,"0"0,0 0,-1-2,-3-18,1 1,0-1,2 0,0 0,1 0,1 0,1 0,1 0,0 1,2-1,0 1,5-9,10-25,2 0,3 2,25-39,10-6,4 2,3 3,5 4,16-11,6 2,5 4,3 5,43-24,-64 54,3 3,2 5,10-1,-34 21,2 3,0 3,2 2,61-10,-92 25,0 1,10 1,-32 3,0 1,0 1,0 0,0 0,0 2,0-1,8 4,-17-4,-1-1,0 0,0 1,1 0,-1-1,0 1,0 1,3 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53918.793">8027 1411,'0'0,"0"0,-1 4,-14 41,3 2,1-1,3 1,2 1,1 2,4-18,0 0,2 0,2 0,1 0,1 0,2-1,1 0,2 2,-5-18,2 0,0-1,1 1,0-1,1-1,0 1,1-2,1 1,0-1,5 3,-10-10,0 0,0 0,1 0,0 0,0-1,0 0,0-1,1 0,-1 0,1 0,0-1,0 0,0-1,0 0,0 0,0-1,0 1,0-2,0 1,0-1,4-1,-5 0,-1-1,1 1,-1-1,1-1,-1 1,0-1,0 0,0 0,-1 0,0-1,0 0,0 0,0-1,-1 1,1-1,-2 0,1 0,-1 0,1-1,-1-1,3-8,0 0,-1 0,0-1,-2 1,0-1,-1 0,0 0,-2-1,0-22,-3 0,-1 1,-2-1,-1 1,-2 1,-2 0,-2 0,-1 1,-2 0,-1 1,-5-3,14 24,-2 1,0 1,0-1,-1 1,-1 1,-4-4,11 12,0-1,-1 1,1 0,-1 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,-1 0,6 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-7 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54250.637">9091 2039,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54586.793">9312 1071,'-10'47,"1"1,2 0,3 0,1 26,4-52,0 1,2-1,0 1,2-1,0 0,1 0,2-1,0 0,1 0,8 12,-9-20,1 1,0-1,1-1,1 0,0-1,0 1,1-2,1 0,-1-1,2 0,-1 0,1-2,0 0,6 2,-10-5,-1-1,1 0,0-1,0 0,0 0,0-1,0 0,0-1,0 0,0 0,0-1,0-1,0 0,0 0,0-1,-1 0,1-1,-1 0,0 0,0-1,0 0,-1-1,0 0,0 1,-1-2,0 1,0-1,0 0,-1-1,0 1,-1-1,0 0,0-1,-1 1,0-1,0 0,-1 0,1-4,-1 1,-1-1,0 0,0 0,-1 0,-1 0,-1 0,1 0,-2-1,-3-14,-1 0,-2 0,0 0,-2 1,-1 0,-1 1,-2 1,-5-9,-1 3,0 2,-2 0,-10-10,18 25,1 0,-2 1,0 0,0 1,-1 1,-1 0,-2 0,9 7,0 0,0 0,0 1,0 0,-1 1,1 0,-1 0,0 1,-5 1,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54914.707">10044 977,'0'0,"0"0,0 0,0 0,0 0,0 0,10 16,5 12,3 9,-1 4,-2 4,-4 2,-3 7,-2 13,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43774.782">4415 5005,'0'0,"0"0,0 0,0 0,1 2,11 15,0 0,0-1,2 0,3 3,64 56,-51-49,-1 2,-2 0,17 22,-6 7,-2 2,13 31,-8-14,-36-69,-3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44110.55">4830 5192,'-3'3,"-82"88,-60 85,43-49,85-110,17-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44490.541">4241 4940,'0'0,"0"0,0 0,0 0,3 0,107-17,-61 8,0 3,0 1,1 2,14 3,-7 6,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46410.808">4241 541,'0'0,"0"0,0 0,0 0,0 0,0 0,2 2,9 18,-1-1,-1 1,0 1,-2 0,0 0,-1 0,-1 1,1 17,2 41,-2 65,-3-69,13 495,-6-199,20 248,1 99,-20-410,21 83,-21-312,18 67,-17-104,2 0,1 0,2-2,4 4,-13-18,-7-24,-1 1,1-1,0 0,0 1,0-1,1 0,-1 1,2 1,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56466.538">2417 6485,'1'3,"13"56,3-2,8 16,50 112,22 64,-68-151,-29-98,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56982.493">2918 6385,'0'0,"-1"3,-6 35,1 1,2 0,2 0,2 0,1 0,2 0,3 9,-4-33,1 0,1-1,1 1,0-1,0 0,2-1,7 13,-12-21,1 0,1 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 0,5 0,-8-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 1,1-2,-1 1,0 0,1 0,-1-1,0 1,-1-1,1 0,0 0,0-2,3-5,-1 0,0-1,-1 1,0-1,0 0,0-9,-1 1,-1-1,-1 0,0 0,-2 0,0 1,-2-1,0 1,-1 0,0 0,-2 0,-5-11,-4-2,0 0,-2 2,-2-1,0 2,-2 1,-2 0,18 21,5 4,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-3-1,5 2,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57314.543">3390 6266,'8'42,"4"24,11 32,-18-79,1 0,2-1,-1 0,2 0,1-1,0 0,4 4,-12-18,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,-1 0,1 0,2 0,-3-1,1 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,-1 0,1 0,0 0,-1-1,0 1,1-1,-1 1,0-1,2-2,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,-1-1,0 1,1-1,-1 1,-1-1,1 0,-1 0,1-1,-1-1,0-1,-1 0,0 0,0 0,0 0,-1 0,0 0,-2-5,-3-7,0 0,-2 1,0 0,-1 0,-1 0,-7-7,8 12,0 1,-1 0,-1 0,0 1,-2-1,7 8,0 0,0 0,0 1,-1 0,0 0,1 0,-1 1,-1 0,1 0,0 1,-6-1,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59514.493">5119 6017,'-29'13,"2"1,0 2,1 0,0 2,1 1,1 1,1 1,-10 12,-47 59,-14 15,74-87,0 0,-2-2,-22 15,19-21,23-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62462.68">5591 6239,'0'0,"-15"3,-38 7,1 2,0 3,1 1,1 3,1 3,1 1,0 2,-2 6,40-25,0 1,0 0,1 1,0 0,-5 7,11-12,1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,0 0,-1-1,2 1,-1 0,0 0,1-1,0 1,-1 0,1 0,1 0,0 2,1 4,0-1,1 0,0 0,1 0,0 0,0-1,1 1,0-1,1 0,0-1,0 1,0-1,1 0,7 5,-7-6,0-1,0 0,1 0,-1-1,1 0,0 0,0-1,1 0,-1 0,1-1,0 0,-1 0,1-1,0 0,0-1,2 0,8-2,0-1,-1-1,1 0,-1-1,0-2,0 1,12-8,-2 0,-1-2,-1 0,-1-2,10-8,-27 19,1 0,-1-1,0 0,-1 0,0-1,0 0,-1 0,1-4,-4 9,-1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,-1 0,1 0,-2-2,-3-6,-1 1,0 0,-1 0,-1 0,0 1,-9-10,-18-22,32 38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63070.488">6094 6425,'0'0,"0"0,0 0,0 0,2-2,1 0,18-14,20-13,-35 25,1 0,-1 1,0 0,1 0,0 1,0 0,-1 0,1 0,0 1,1 0,-7 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-2 2,-28 32,-1-2,-33 26,-79 54,72-61,-40 21,71-50,-2-1,-1-2,-29 9,73-29,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,-1 0,2 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,38 16,-37-16,46 14,30 5,-14-4,-25-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63406.529">6400 7227,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63974.72">6813 6764,'0'0,"0"0,3-2,44-34,3 1,36-17,-58 37,2 1,0 1,1 1,0 2,25-5,-53 15,8-2,-1 0,1 0,9 1,-18 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 2,1-1,-1 0,1 0,-1 0,0 1,0-1,0 1,1-1,-1 1,-1 0,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 1,-1 0,-2 4,-16 30,-3-2,0-1,-2-1,-2 0,0-3,-2 0,-2-1,-32 22,64-50,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,25 0,-15 0,12 1,0 0,0 2,5 1,-21-3,1 1,-1 0,0 1,1-1,-1 1,0 1,0-1,-1 1,1 0,-1 1,4 2,-8-5,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 1,0 1,-1-1,0 0,0 0,0 1,-1-1,1 0,-1 0,0-1,-1 1,-4 8,-1-1,0 1,-1-2,0 1,0-2,-2 1,-1 0,-9 7,-2-1,0-1,-22 10,27-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="64734.523">7858 6694,'-1'3,"0"1,1-1,-1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,-4 10,-101 180,25-45,45-79,-7 13,-11 32,55-111,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0-1,0 1,-1 0,1-1,0 1,1 0,4 3,1 0,0 0,0-1,0 0,0 0,0-1,8 2,-4-2,1-1,-1 0,1-1,-1-1,1 0,-1-1,1 0,-1-1,1 0,-1-1,0 0,6-3,8-4,0-1,0-1,-1-1,-1-2,1-1,2-3,-1-1,5-5,-19 14,-1 0,0-1,0 0,-2-1,6-8,-7 1,-7 19,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-2 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 1,-6 4,-132 90,109-71,1 1,1 1,-9 12,1 6,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112873.159">6139 4363,'-6'-19,"2"4,2-1,0 1,0 0,1-1,1 1,1-1,0 1,1-1,1 1,0 0,3-8,36 6,-21 6,-9 4,0 1,1 1,0 0,11-3,-29 14,-35 63,3 3,30-53,7-18,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 0,-1 0,2 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 0,0 1,0-1,31-11,-1 0,0-3,27-16,-15 8,26-9,-65 30,0 0,0 1,0-1,0 1,0 0,1 0,-6 1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,-6 20,5-18,-52 111,-5-3,-14 12,-11 21,82-140,7-8,14-16,-16 17,427-440,-282 295,-126 125,-7 8,0 0,1 1,5-3,-21 17,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-3 9,-12 15,-152 190,-30 43,233-274,83-53,-8 3,4 4,20-2,-127 62,-5 1,0 0,1 1,-1-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 1,-3-1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-10 21,6-15,-20 42,9-19,0 1,2 1,2 0,0 4,11-35,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,17 0,27-16,-30 10,18-6,-2 0,1 2,-1 1,18-2,-47 10,0 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0 7,-1 0,1 0,-2 0,1 0,-1-1,-1 3,-1 6,2-5,0-1,1 0,-1 9,3-20,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,14-4,15-12,-27 14,48-28,-28 14,1 2,1 1,0 1,1 1,10-3,-34 13,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 8,-1-1,0 1,-1-1,1 0,-3 4,2-4,-12 37,10-31,-1 0,1 0,1 0,1 0,-1 6,45-38,-37 15,1 0,1 0,0 1,0-1,0 1,0 1,0-1,0 1,1 0,-8 1,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-3 13,-8 15,10-28,-10 23,-1 1,-1-2,-2 0,0-1,-1 0,-1-1,-1-1,-4 2,21-21,1-1,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,-11-145,8 74,-4 0,-3-3,8 68,1 0,-1-1,0 1,0 0,-1 0,0 1,0-1,-1 1,0-1,0 1,-2-2,3 5,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,-1 0,-14 1,1 1,0 1,0 0,0 2,1 0,-12 5,-29 14,-20 12,59-26,-281 153,155-81,138-77,3-3,1 1,-1-1,0 1,0-1,0-1,-4 2,9-3,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 1,1-2,-3-26,2-1,1-5,-1-52,0 75,-2 1,1 0,-1 0,-1 0,0 1,0-1,-2-2,3 7,-1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 0,-1-1,-52-30,44 27,0 0,1 0,0-1,-1-2,10 8,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 0,1 1,-1 0,0 0,0 0,1 1,-2 0,-10-1,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118401.157">3179 5527,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2-3,-20-42,2 0,1-2,3 0,2-1,1-4,13 52,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,25 13,-17-9,5 3,1-1,1 0,-1-1,1-1,0 0,10 1,-19-4,0-2,0 1,0-1,0 0,0 0,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,0-1,-1 1,0-1,1 0,-1 0,3-4,2-1,0 0,-1 0,0-1,0 0,-1-1,-1 0,1-1,-2 1,1-1,-2 0,1-1,-2 1,1-1,-2 0,1-1,-2 1,1 0,-2-1,0 1,0-4,2-9,-3 25,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,8 13,108 239,-92-199,-3 1,-2 1,5 17</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:40:32.684"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 4776,'0'0,"0"0,0 0,11-5,-5 2,15-10,1-1,-2-1,0-1,-1 0,1-4,87-94,-100 105,50-60,-4-2,-3-3,-3-2,-4-2,16-42,51-139,-4-26,-35 90,379-952,-185 544,-212 502,4 2,5 3,4 3,4 3,18-14,22-13,5 5,5 6,56-35,70-40,-148 115,68-32,-105 66,2 3,1 3,31-7,-49 20,1 1,0 3,1 2,-1 2,21 1,-34 4,1 2,-1 1,1 1,-1 2,0 1,5 4,-14-3,-1 1,0 1,-1 1,0 1,-1 1,0 1,-1 1,11 10,-5 0,0 2,-2 0,-1 1,-2 2,6 10,1 6,-3 1,-2 1,6 21,13 51,-5 2,15 90,22 140,60 235,-97-451,7-3,5-1,22 32,-15-53,4-2,5-3,5-3,4-4,4-3,5-3,3-4,4-4,11 2,-1-7,3-5,3-5,4-5,2-4,11-1,211 78,14-12,-210-81,1-6,2-6,1-6,1-6,25-5,-142-16,-30 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 5129,'0'0,"0"0,2-1,40-17,0 1,1 2,35-6,136-24,-207 44,740-107,5 32,-576 59,1249-92,-997 80,-42 1,230-15,1 20,371 48,-624 5,252 57,-586-81,18 6,-29-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">3261 258,'4'16,"15"87,-4 1,-3 13,5 214,-11-177,116 1281,-74-863,-31 2,-10-291,-1-102,9 0,13 36,-25-171,-3-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">6626 4278,'0'0,"0"0,0 0,-1-2,-3-18,1 1,0-1,2 0,0 0,1 0,1 0,1 0,1 0,0 1,2-1,0 1,5-9,10-25,2 0,3 2,25-39,10-6,4 2,3 3,5 4,16-11,6 2,5 4,3 5,43-24,-64 54,3 3,2 5,10-1,-34 21,2 3,0 3,2 2,61-10,-92 25,0 1,10 1,-32 3,0 1,0 1,0 0,0 0,0 2,0-1,8 4,-17-4,-1-1,0 0,0 1,1 0,-1-1,0 1,0 1,3 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">4415 5005,'0'0,"0"0,0 0,0 0,1 2,11 15,0 0,0-1,2 0,3 3,64 56,-51-49,-1 2,-2 0,17 22,-6 7,-2 2,13 31,-8-14,-36-69,-3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9">4830 5192,'-3'3,"-82"88,-60 85,43-49,85-110,17-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10">4241 4940,'0'0,"0"0,0 0,0 0,3 0,107-17,-61 8,0 3,0 1,1 2,14 3,-7 6,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11">4241 541,'0'0,"0"0,0 0,0 0,0 0,0 0,2 2,9 18,-1-1,-1 1,0 1,-2 0,0 0,-1 0,-1 1,1 17,2 41,-2 65,-3-69,13 495,-6-199,20 248,1 99,-20-410,21 83,-21-312,18 67,-17-104,2 0,1 0,2-2,4 4,-13-18,-7-24,-1 1,1-1,0 0,0 1,0-1,1 0,-1 1,2 1,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12">2417 6485,'1'3,"13"56,3-2,8 16,50 112,22 64,-68-151,-29-98,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13">2918 6385,'0'0,"-1"3,-6 35,1 1,2 0,2 0,2 0,1 0,2 0,3 9,-4-33,1 0,1-1,1 1,0-1,0 0,2-1,7 13,-12-21,1 0,1 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 0,5 0,-8-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 1,1-2,-1 1,0 0,1 0,-1-1,0 1,-1-1,1 0,0 0,0-2,3-5,-1 0,0-1,-1 1,0-1,0 0,0-9,-1 1,-1-1,-1 0,0 0,-2 0,0 1,-2-1,0 1,-1 0,0 0,-2 0,-5-11,-4-2,0 0,-2 2,-2-1,0 2,-2 1,-2 0,18 21,5 4,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-3-1,5 2,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14">3390 6266,'8'42,"4"24,11 32,-18-79,1 0,2-1,-1 0,2 0,1-1,0 0,4 4,-12-18,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,-1 0,1 0,2 0,-3-1,1 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,-1 0,1 0,0 0,-1-1,0 1,1-1,-1 1,0-1,2-2,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,-1-1,0 1,1-1,-1 1,-1-1,1 0,-1 0,1-1,-1-1,0-1,-1 0,0 0,0 0,0 0,-1 0,0 0,-2-5,-3-7,0 0,-2 1,0 0,-1 0,-1 0,-7-7,8 12,0 1,-1 0,-1 0,0 1,-2-1,7 8,0 0,0 0,0 1,-1 0,0 0,1 0,-1 1,-1 0,1 0,0 1,-6-1,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15">5119 6017,'-29'13,"2"1,0 2,1 0,0 2,1 1,1 1,1 1,-10 12,-47 59,-14 15,74-87,0 0,-2-2,-22 15,19-21,23-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16">5591 6239,'0'0,"-15"3,-38 7,1 2,0 3,1 1,1 3,1 3,1 1,0 2,-2 6,40-25,0 1,0 0,1 1,0 0,-5 7,11-12,1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,0 0,-1-1,2 1,-1 0,0 0,1-1,0 1,-1 0,1 0,1 0,0 2,1 4,0-1,1 0,0 0,1 0,0 0,0-1,1 1,0-1,1 0,0-1,0 1,0-1,1 0,7 5,-7-6,0-1,0 0,1 0,-1-1,1 0,0 0,0-1,1 0,-1 0,1-1,0 0,-1 0,1-1,0 0,0-1,2 0,8-2,0-1,-1-1,1 0,-1-1,0-2,0 1,12-8,-2 0,-1-2,-1 0,-1-2,10-8,-27 19,1 0,-1-1,0 0,-1 0,0-1,0 0,-1 0,1-4,-4 9,-1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,-1 0,1 0,-2-2,-3-6,-1 1,0 0,-1 0,-1 0,0 1,-9-10,-18-22,32 38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17">6094 6425,'0'0,"0"0,0 0,0 0,2-2,1 0,18-14,20-13,-35 25,1 0,-1 1,0 0,1 0,0 1,0 0,-1 0,1 0,0 1,1 0,-7 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-2 2,-28 32,-1-2,-33 26,-79 54,72-61,-40 21,71-50,-2-1,-1-2,-29 9,73-29,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,-1 0,2 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,38 16,-37-16,46 14,30 5,-14-4,-25-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18">6400 7227,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19">6813 6764,'0'0,"0"0,3-2,44-34,3 1,36-17,-58 37,2 1,0 1,1 1,0 2,25-5,-53 15,8-2,-1 0,1 0,9 1,-18 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 2,1-1,-1 0,1 0,-1 0,0 1,0-1,0 1,1-1,-1 1,-1 0,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 1,-1 0,-2 4,-16 30,-3-2,0-1,-2-1,-2 0,0-3,-2 0,-2-1,-32 22,64-50,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,25 0,-15 0,12 1,0 0,0 2,5 1,-21-3,1 1,-1 0,0 1,1-1,-1 1,0 1,0-1,-1 1,1 0,-1 1,4 2,-8-5,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 1,0 1,-1-1,0 0,0 0,0 1,-1-1,1 0,-1 0,0-1,-1 1,-4 8,-1-1,0 1,-1-2,0 1,0-2,-2 1,-1 0,-9 7,-2-1,0-1,-22 10,27-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20">7858 6694,'-1'3,"0"1,1-1,-1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,-4 10,-101 180,25-45,45-79,-7 13,-11 32,55-111,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0-1,0 1,-1 0,1-1,0 1,1 0,4 3,1 0,0 0,0-1,0 0,0 0,0-1,8 2,-4-2,1-1,-1 0,1-1,-1-1,1 0,-1-1,1 0,-1-1,1 0,-1-1,0 0,6-3,8-4,0-1,0-1,-1-1,-1-2,1-1,2-3,-1-1,5-5,-19 14,-1 0,0-1,0 0,-2-1,6-8,-7 1,-7 19,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-2 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 1,-6 4,-132 90,109-71,1 1,1 1,-9 12,1 6,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21">6139 4363,'-6'-19,"2"4,2-1,0 1,0 0,1-1,1 1,1-1,0 1,1-1,1 1,0 0,3-8,36 6,-21 6,-9 4,0 1,1 1,0 0,11-3,-29 14,-35 63,3 3,30-53,7-18,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 0,-1 0,2 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 0,0 1,0-1,31-11,-1 0,0-3,27-16,-15 8,26-9,-65 30,0 0,0 1,0-1,0 1,0 0,1 0,-6 1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,-6 20,5-18,-52 111,-5-3,-14 12,-11 21,82-140,7-8,14-16,-16 17,427-440,-282 295,-126 125,-7 8,0 0,1 1,5-3,-21 17,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-3 9,-12 15,-152 190,-30 43,233-274,83-53,-8 3,4 4,20-2,-127 62,-5 1,0 0,1 1,-1-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 1,-3-1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-10 21,6-15,-20 42,9-19,0 1,2 1,2 0,0 4,11-35,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,17 0,27-16,-30 10,18-6,-2 0,1 2,-1 1,18-2,-47 10,0 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0 7,-1 0,1 0,-2 0,1 0,-1-1,-1 3,-1 6,2-5,0-1,1 0,-1 9,3-20,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,14-4,15-12,-27 14,48-28,-28 14,1 2,1 1,0 1,1 1,10-3,-34 13,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 8,-1-1,0 1,-1-1,1 0,-3 4,2-4,-12 37,10-31,-1 0,1 0,1 0,1 0,-1 6,45-38,-37 15,1 0,1 0,0 1,0-1,0 1,0 1,0-1,0 1,1 0,-8 1,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-3 13,-8 15,10-28,-10 23,-1 1,-1-2,-2 0,0-1,-1 0,-1-1,-1-1,-4 2,21-21,1-1,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,-11-145,8 74,-4 0,-3-3,8 68,1 0,-1-1,0 1,0 0,-1 0,0 1,0-1,-1 1,0-1,0 1,-2-2,3 5,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,-1 0,-14 1,1 1,0 1,0 0,0 2,1 0,-12 5,-29 14,-20 12,59-26,-281 153,155-81,138-77,3-3,1 1,-1-1,0 1,0-1,0-1,-4 2,9-3,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 1,1-2,-3-26,2-1,1-5,-1-52,0 75,-2 1,1 0,-1 0,-1 0,0 1,0-1,-2-2,3 7,-1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 0,-1-1,-52-30,44 27,0 0,1 0,0-1,-1-2,10 8,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 0,1 1,-1 0,0 0,0 0,1 1,-2 0,-10-1,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22">3179 5527,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2-3,-20-42,2 0,1-2,3 0,2-1,1-4,13 52,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,25 13,-17-9,5 3,1-1,1 0,-1-1,1-1,0 0,10 1,-19-4,0-2,0 1,0-1,0 0,0 0,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,0-1,-1 1,0-1,1 0,-1 0,3-4,2-1,0 0,-1 0,0-1,0 0,-1-1,-1 0,1-1,-2 1,1-1,-2 0,1-1,-2 1,1-1,-2 0,1-1,-2 1,1 0,-2-1,0 1,0-4,2-9,-3 25,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,8 13,108 239,-92-199,-3 1,-2 1,5 17</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:40:54.084"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'2'173,"7"0,8-1,8-1,7-1,13 20,-34-149,2-1,2 0,1-1,3-1,1-1,23 34,-31-55,0 0,0-1,1-1,1 0,1-1,0 0,1-2,0 1,0-2,1 0,1-1,0-1,0 0,0-2,1 0,2 0,-2-3,0-1,0 0,0-1,0-1,0-1,0-1,0-1,0 0,-1-1,1-1,-1-1,0 0,-1-2,16-8,-12 4,-1 0,0-1,-1-1,0-1,-1 0,-1-1,-1-2,0 1,-1-2,-1 0,9-17,-6 3,-1-2,-1 1,-3-2,0 0,-3 0,-1-1,-1 0,1-34,-5 13,-2-1,-3 1,-2 0,-3 0,-6-21,8 55,-1 0,0 1,-2-1,-1 1,-1 1,-1 0,-1 0,-4-5,6 14,0-1,-1 2,0 0,-1 0,0 1,-1 0,0 1,-1 1,0 0,0 1,-1 1,-10-5,-12-1,0 2,-1 1,0 2,-1 1,1 2,-40 1,3 4,0 3,0 3,-12 6,83-12,-2 1,0 0,1 0,-1 0,0 1,1 0,0 0,-5 2,1 2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:40:54.520"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2019-10-31T14:41:00.632"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2218,'0'0,"0"0,1 3,9 21,0-1,1 0,1-1,2-1,0 0,1 0,1-1,0-1,2-1,0-1,1 0,1-1,3 0,2 0,0 0,1-3,1 0,0-1,1-2,0 0,1-3,0 0,0-1,0-2,7-1,2 0,1-2,-1-1,0-2,0-2,0-2,25-6,-46 7,0 0,0-1,-1-1,0-1,0 0,-1-1,0 0,0-1,-1-1,0-1,-1 0,0 0,-1-1,-1-1,3-5,-1 1,-1-1,-1 0,0-1,-2 0,-1 0,0-1,-1 0,-1 0,-2-1,0 0,-1 0,-1 0,-1 0,-1 0,-1 0,0-1,-2 1,-1 1,-1-1,-1 0,0 1,-6-9,1 4,-1 0,-2 2,0 0,-2 0,0 1,-2 1,0 1,-2 0,0 2,-1 0,-1 1,-1 2,0 0,-1 1,-1 2,0 0,-1 1,0 2,-1 1,0 1,0 1,-1 2,1 0,-1 2,-1 1,1 1,0 2,0 0,0 2,0 2,-25 6,39-7,-43 13,55-16,-1 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1 0,0 0,-16 71,8-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="739.706">1356 839,'1'24,"7"66,9 39,-11-94,2-1,1-1,2 0,1 0,7 12,-15-38,0 0,0-1,1 1,0-1,0 0,0 0,1-1,0 0,0 0,0 0,1-1,0 1,-1-2,1 1,1-1,-1 0,0 0,1-1,6 1,15 2,0-1,1-1,0-2,19-2,-20 1,117-3,83 2,-181 3,0 2,0 2,33 10,-65-12,0 1,0 0,-1 1,0 1,0 0,-1 1,0 1,0 0,-1 1,0 0,3 5,-7-6,-2 0,1 0,-1 0,-1 1,1 0,-2 0,1 1,-2 0,1 0,-2 0,1 0,-1 0,-1 1,0-1,-1 1,0 2,-1 3,0 1,-1-1,-1 0,-1 0,0 0,-1-1,-1 1,-1-1,0 0,-1 0,-6 9,8-15,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 0,1 0,-1-1,-1 0,1-1,-1 0,0 0,-1-1,1 0,-1-1,-6 2,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1099.985">1400 1070,'0'0,"3"-4,97-134,6 5,66-59,-75 87,4 4,5 5,4 4,26-11,-97 77,1 2,16-6,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1611.855">438 1582,'-13'15,"9"-10,-2 2,-8 10,0-1,1 1,1 1,1 1,0-1,-2 10,-34 75,16-42</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1142,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4D9E-CD95-45FC-A471-F9A058D4BF0E}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A38"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874497EA-B145-459C-84CA-32F7F1F7E1BE}">
-  <dimension ref="A2:O48"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,411 +1761,811 @@
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J6" s="1" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="J16" s="4"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="B25" s="7"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9">
+        <v>102.357328881469</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10">
+        <v>599</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9">
+        <v>25.2321195449925</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="7">
+        <f>1-0.99</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="11">
+        <v>100</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="12">
+        <f>B28/SQRT(B27)</f>
+        <v>1.0309564555515394</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="str">
+        <f>"mu&lt;="&amp;B32</f>
+        <v>mu&lt;=100</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="str">
+        <f>"mu&gt;"&amp;B32</f>
+        <v>mu&gt;100</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B40" s="17" t="str">
+        <f>IF(B26&lt;B32,"Away from Rejection Area","Towards Rejection Area")</f>
+        <v>Towards Rejection Area</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="12">
+        <f>_xlfn.NORM.INV((1-B31),B26,B33)</f>
+        <v>104.75569224007</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="17" t="str">
+        <f>IF((B26&lt;B42),"Expect: Fail to Reject Null","Expect: Reject Null")</f>
+        <v>Expect: Fail to Reject Null</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="30">
+        <f>B31</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="29">
+        <f>1-_xlfn.NORM.DIST(B26,B32,B33,TRUE)</f>
+        <v>1.1111181667310066E-2</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6" t="b">
+        <f>B46&lt;B45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="17" t="str">
+        <f>IF(B47,"Reject Null","Fail to Reject Null")</f>
+        <v>Fail to Reject Null</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="9">
         <v>102.357328881469</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="10">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="9">
+        <v>25.2321195449925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="7">
+        <f>1-0.95</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="12">
+        <f>B61/SQRT(B60)</f>
+        <v>1.0309564555515394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="7" t="str">
+        <f>"mu&lt;="&amp;B65</f>
+        <v>mu&lt;=100</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <f>"mu&gt;"&amp;B65</f>
+        <v>mu&gt;100</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="17" t="str">
+        <f>IF(B59&lt;B65,"Away from Rejection Area","Towards Rejection Area")</f>
+        <v>Towards Rejection Area</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B75" s="12">
+        <f>_xlfn.NORM.INV((1-B64),B59,B66)</f>
+        <v>104.05310134661198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="17" t="str">
+        <f>IF((B59&lt;B75),"Expect: Fail to Reject Null","Expect: Reject Null")</f>
+        <v>Expect: Fail to Reject Null</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="30">
+        <f>B64</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="29">
+        <f>1-_xlfn.NORM.DIST(B59,B65,B66,TRUE)</f>
+        <v>1.1111181667310066E-2</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="6" t="b">
+        <f>B79&lt;B78</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="17" t="str">
+        <f>IF(B80,"Reject Null","Fail to Reject Null")</f>
+        <v>Reject Null</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="9">
+        <v>102.357328881469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="10">
         <v>599</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="J10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="9">
+        <v>25.2321195449925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="12">
+        <f>B91/SQRT(B90)</f>
+        <v>1.0309564555515394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="7" t="str">
+        <f>"mu&lt;="&amp;B95</f>
+        <v>mu&lt;=100</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <f>"mu&gt;"&amp;B95</f>
+        <v>mu&gt;100</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="17" t="str">
+        <f>IF(B89&lt;B95,"Away from Rejection Area","Towards Rejection Area")</f>
+        <v>Towards Rejection Area</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="12">
+        <f>_xlfn.NORM.INV((1-B94),B89,B96)</f>
+        <v>104.47465457896682</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="17" t="str">
+        <f>IF((B89&lt;B105),"Expect: Fail to Reject Null","Expect: Reject Null")</f>
+        <v>Expect: Fail to Reject Null</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="11">
-        <v>25.2321195449925</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="13">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="B108" s="30">
+        <f>B94</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="29">
+        <f>1-_xlfn.NORM.DIST(B89,B95,B96,TRUE)</f>
+        <v>1.1111181667310066E-2</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="6" t="b">
+        <f>B109&lt;B108</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="str">
-        <f>"mu&gt;="&amp;B15</f>
-        <v>mu&gt;=100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f>"mu&lt;"&amp;B15</f>
-        <v>mu&lt;100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="14">
-        <f>B11/SQRT(B10)</f>
-        <v>1.0309564555515394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="L22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="19" t="str">
-        <f>IF(B9&gt;B15,"Away from Rejection Area","Towards Rejection Area")</f>
-        <v>Away from Rejection Area</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23">
-        <v>78.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="I24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24">
-        <v>22.5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="4">
-        <f>_xlfn.NORM.INV(((1-J25)/2),J23,J27)</f>
-        <v>73.976544920659165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="14">
-        <f>_xlfn.NORM.INV((1-B14),B9,B20)</f>
-        <v>99.958965522867999</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="4">
-        <f>_xlfn.NORM.INV(J25+((1-J25)/2),J23,J27)</f>
-        <v>82.523455079340835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="19" t="str">
-        <f>IF((B9&gt;B25),"Expect: Fail to Reject Null","Expect: Reject Null")</f>
-        <v>Expect: Fail to Reject Null</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27">
-        <f>J24/SQRT(J26)</f>
-        <v>2.5980762113533156</v>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f>"We are "&amp;(J25*100)&amp;"% that population mean lies between "&amp;ROUND(O24,2)&amp;" and "&amp;ROUND(O25,2)</f>
-        <v>We are 90% that population mean lies between 73.98 and 82.52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8">
-        <f>1-B14</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="21">
-        <f>_xlfn.NORM.DIST(B9,B15,B20,TRUE)</f>
-        <v>0.98888881833268993</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B111" s="17" t="str">
+        <f>IF(B110,"Reject Null","Fail to Reject Null")</f>
+        <v>Reject Null</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="8" t="b">
-        <f>B29&lt;B28</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="19" t="str">
-        <f>IF(B30,"Reject Null","Fail to Reject Null")</f>
-        <v>Fail to Reject Null</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E32" s="22"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="22"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="27"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="22"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="27"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="22"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="27"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E42" s="22"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E44" s="22"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>